--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,250 +423,412 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>買</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>pv</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>原有</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>包</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>包</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>和</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>and</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>掉</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>枝</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>到</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>棉花糖</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>地上</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>共</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>枝</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>要</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>棉花糖</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>多少</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>比</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>豆干</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>少</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>smaller</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>小明</t>
+          <t>凡凡</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -435,312 +435,264 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>買</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>有</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>箱</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>豆干</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>飲料</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>豆干</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>nv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>和</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>想</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>元</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>買</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>枝</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>棉花糖</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>箱</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>共</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>枝</t>
+          <t>飲料</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>要</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>棉花糖</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>多少</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>比</t>
+          <t>不夠</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>豆干</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>少</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>smaller</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -748,88 +700,6 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,24 +423,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>凡凡</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>time</t>
         </is>
       </c>
     </row>
@@ -459,19 +459,19 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>place</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,19 +483,19 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,72 +507,72 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>想</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>買</t>
+          <t>跳走</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -591,12 +591,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>了</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>u</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -607,12 +607,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -623,12 +623,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -639,12 +639,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>後</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -655,12 +655,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>不夠</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -671,12 +671,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>又</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>u</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -687,12 +687,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>放進</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -700,6 +700,54 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,115 +423,115 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>池塘裡</t>
+          <t>你</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>現在</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>身上</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>池塘裡</t>
+          <t>輛</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>有</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>共有</t>
+          <t>腳踏車</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>多少</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>equal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>青蛙</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>元</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -555,48 +555,40 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>青蛙</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>跳走</t>
+          <t>父親</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>再</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -607,12 +599,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>給</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -623,12 +615,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>你</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -639,12 +631,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>後</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -655,12 +647,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -671,12 +663,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>又</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -687,12 +679,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>放進</t>
+          <t>母親</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -703,12 +695,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>再</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -719,12 +711,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>給</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -735,12 +727,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>你</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -748,6 +740,310 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>你</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>借給</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>nv</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>妹妹</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>你</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>身上</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>錢</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>正好可以</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>adv</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>買</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pv</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>輛</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>腳踏車</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>你</t>
+          <t>媽媽</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -435,67 +435,67 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>請問</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>身上</t>
+          <t>煮</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>輛</t>
+          <t>還</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>了</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>u</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>腳踏車</t>
+          <t>剩下</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,19 +507,19 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>多少</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>顆</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>顆</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -543,52 +543,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>水餃</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>水餃</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>父親</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>？</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>再</t>
+          <t>弟弟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -599,12 +607,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>給</t>
+          <t>吃</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -615,12 +623,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>你</t>
+          <t>了</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>u</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -631,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -647,7 +655,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>顆</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -663,7 +671,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -676,374 +684,6 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>母親</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>再</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>adv</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>給</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nv</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>，</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>借給</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>nv</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>妹妹</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>，</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>身上</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>的</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>錢</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>正好可以</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>adv</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>買</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>pv</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>輛</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>腳踏車</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,146 +423,138 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>媽媽</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>請問</t>
+          <t>共</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>煮</t>
+          <t>片</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>要</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>餅乾</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>多少</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>equal</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>元</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>？</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>水餃</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -577,21 +569,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>？</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>弟弟</t>
+          <t>宥云</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -607,12 +591,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>吃</t>
+          <t>和</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>and</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -623,12 +607,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>宥勳</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -639,12 +623,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>各</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -655,12 +639,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>買</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -671,12 +655,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -684,6 +668,38 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>片</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>媽媽</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -435,19 +435,19 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>請問</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>煮</t>
+          <t>排隊</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -459,115 +459,115 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>他</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>name</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>前面</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>before</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>第</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>的</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>第</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>個</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -579,110 +579,110 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>？</t>
+          <t>個</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>弟弟</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>人</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>吃</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>了</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>第</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>adv</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>幾</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>adv</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>？</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project1/process/斷詞.xlsx
+++ b/project1/process/斷詞.xlsx
@@ -423,31 +423,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>小明</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>排在</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>排隊</t>
+          <t>有</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -459,230 +459,294 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>他</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>place</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>排在</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>前面</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>第</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>的</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>第</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>個</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>跳走</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>個</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>了</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>人</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>第</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>adv</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>後</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>幾</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>adv</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>個</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>又</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>？</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>放進</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pv</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
